--- a/src/test/resources/test1.xlsx
+++ b/src/test/resources/test1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\IdeaProjects\excel-json-converter\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19174EC-4584-4687-AD58-8E28BF290004}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C1169F-70EB-4446-B064-F1206123C95C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="19200" windowHeight="11370" activeTab="1" xr2:uid="{56B80FDC-AE47-4E16-AAD6-6E0A71D52D22}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="19200" windowHeight="11370" activeTab="2" xr2:uid="{56B80FDC-AE47-4E16-AAD6-6E0A71D52D22}"/>
   </bookViews>
   <sheets>
     <sheet name="Penguins" sheetId="1" r:id="rId1"/>
-    <sheet name="Stuff" sheetId="2" r:id="rId2"/>
+    <sheet name="Books" sheetId="2" r:id="rId2"/>
+    <sheet name="Empty Sheet" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,10 +61,10 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>what</t>
-  </si>
-  <si>
     <t>green eggs and ham</t>
+  </si>
+  <si>
+    <t>cat in the hat</t>
   </si>
 </sst>
 </file>
@@ -476,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B05EE20-68FE-406A-8FC4-65A9D24DD379}">
   <dimension ref="B1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +496,7 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -506,7 +507,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>45</v>
@@ -518,4 +519,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B63DF61-91C8-4C0E-AA99-BC97D053BCE5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>